--- a/räls_livslängd/Wear/mistra_results.xlsx
+++ b/räls_livslängd/Wear/mistra_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\räls_livslängd\Wear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C40FF1D-0FC8-4A4D-A407-60E0E4BEA5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A1D3F-FD56-40DA-AB57-D40195F51154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" tabRatio="330" activeTab="3" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="330" activeTab="3" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
   </bookViews>
   <sheets>
     <sheet name="Wear" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +188,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,14 +261,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Dålig" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
@@ -1227,9 +1297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1267,7 +1337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1373,7 +1443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1515,7 +1585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,7 +1596,7 @@
   <dimension ref="A5:AB40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD57"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1609,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="V5" t="s">
@@ -1630,7 +1700,7 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1712,22 +1782,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H9">
@@ -1792,22 +1862,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>0.05</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0.1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0.11600000000000001</v>
       </c>
       <c r="H10">
@@ -1872,22 +1942,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H11">
@@ -1952,22 +2022,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H12">
@@ -2532,22 +2602,22 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29">
-        <v>0.53</v>
-      </c>
-      <c r="C29">
-        <v>0.53</v>
-      </c>
-      <c r="D29">
-        <v>0.53</v>
-      </c>
-      <c r="E29">
-        <v>0.53</v>
-      </c>
-      <c r="F29">
-        <v>0.53</v>
-      </c>
-      <c r="G29">
+      <c r="B29" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="G29" s="5">
         <v>0.53</v>
       </c>
       <c r="H29">
@@ -2612,22 +2682,22 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30">
-        <v>0.53</v>
-      </c>
-      <c r="C30">
-        <v>0.53</v>
-      </c>
-      <c r="D30">
-        <v>0.53</v>
-      </c>
-      <c r="E30">
-        <v>0.53</v>
-      </c>
-      <c r="F30">
-        <v>0.53</v>
-      </c>
-      <c r="G30">
+      <c r="B30" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="G30" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="H30">
@@ -2692,22 +2762,22 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31">
-        <v>0.53</v>
-      </c>
-      <c r="C31">
-        <v>0.53</v>
-      </c>
-      <c r="D31">
-        <v>0.53</v>
-      </c>
-      <c r="E31">
-        <v>0.53</v>
-      </c>
-      <c r="F31">
-        <v>0.53</v>
-      </c>
-      <c r="G31">
+      <c r="B31" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="G31" s="5">
         <v>0.53</v>
       </c>
       <c r="H31">
@@ -2772,22 +2842,22 @@
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32">
-        <v>0.53</v>
-      </c>
-      <c r="C32">
-        <v>0.53</v>
-      </c>
-      <c r="D32">
-        <v>0.53</v>
-      </c>
-      <c r="E32">
-        <v>0.53</v>
-      </c>
-      <c r="F32">
-        <v>0.53</v>
-      </c>
-      <c r="G32">
+      <c r="B32" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="G32" s="5">
         <v>0.53</v>
       </c>
       <c r="H32">
@@ -3199,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575556C3-9CD1-4D3F-93A7-9FEC3F5A934D}">
   <dimension ref="A6:AB39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,22 +3441,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>1.03E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="H9">
@@ -3451,22 +3521,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1.24E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>2.07E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>3.73E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="H10">
@@ -3531,22 +3601,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>0.1026</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>0.1149</v>
       </c>
       <c r="H11">
@@ -3611,22 +3681,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>0.12039999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>0.15260000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>0.1842</v>
       </c>
       <c r="H12">
@@ -3853,22 +3923,22 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>5.28E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>9.3100000000000002E-2</v>
       </c>
       <c r="H18">
@@ -3933,22 +4003,22 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>0.1663</v>
       </c>
       <c r="H19">
@@ -4180,22 +4250,22 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29">
@@ -4260,22 +4330,22 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30">
@@ -4340,22 +4410,22 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31">
@@ -4420,22 +4490,22 @@
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32">
@@ -4667,22 +4737,22 @@
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38">
@@ -4747,22 +4817,22 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39">
@@ -4842,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C240127D-17EB-4812-A2BA-3FDC0D42802F}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,25 +5011,25 @@
       <c r="A3">
         <v>1440</v>
       </c>
-      <c r="B3">
-        <v>0.53</v>
-      </c>
-      <c r="C3">
-        <v>0.53</v>
-      </c>
-      <c r="D3">
-        <v>0.53</v>
-      </c>
-      <c r="E3">
-        <v>0.53</v>
-      </c>
-      <c r="F3">
-        <v>0.53</v>
-      </c>
-      <c r="G3">
-        <v>0.53</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H3" s="4">
         <v>0.74</v>
       </c>
       <c r="I3">
@@ -4982,25 +5052,25 @@
       <c r="A4">
         <v>1445</v>
       </c>
-      <c r="B4">
-        <v>0.53</v>
-      </c>
-      <c r="C4">
-        <v>0.53</v>
-      </c>
-      <c r="D4">
-        <v>0.53</v>
-      </c>
-      <c r="E4">
-        <v>0.53</v>
-      </c>
-      <c r="F4">
-        <v>0.53</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.89</v>
       </c>
       <c r="I4">
@@ -5023,32 +5093,32 @@
       <c r="A5">
         <v>1450</v>
       </c>
-      <c r="B5">
-        <v>0.53</v>
-      </c>
-      <c r="C5">
-        <v>0.53</v>
-      </c>
-      <c r="D5">
-        <v>0.53</v>
-      </c>
-      <c r="E5">
-        <v>0.53</v>
-      </c>
-      <c r="F5">
-        <v>0.53</v>
-      </c>
-      <c r="G5">
-        <v>0.53</v>
-      </c>
-      <c r="H5">
-        <v>0.74</v>
-      </c>
-      <c r="I5">
-        <v>0.88</v>
-      </c>
-      <c r="J5">
-        <v>0.89</v>
+      <c r="B5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.99</v>
       </c>
       <c r="K5">
         <v>1.03</v>
@@ -5064,25 +5134,25 @@
       <c r="A6">
         <v>1455</v>
       </c>
-      <c r="B6">
-        <v>0.53</v>
-      </c>
-      <c r="C6">
-        <v>0.53</v>
-      </c>
-      <c r="D6">
-        <v>0.53</v>
-      </c>
-      <c r="E6">
-        <v>0.53</v>
-      </c>
-      <c r="F6">
-        <v>0.53</v>
-      </c>
-      <c r="G6">
-        <v>0.53</v>
-      </c>
-      <c r="H6">
+      <c r="B6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.9</v>
       </c>
       <c r="I6">
@@ -5105,22 +5175,22 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -5146,28 +5216,28 @@
       <c r="A8">
         <v>1450</v>
       </c>
-      <c r="B8">
-        <v>0.53</v>
-      </c>
-      <c r="C8">
-        <v>0.53</v>
-      </c>
-      <c r="D8">
-        <v>0.53</v>
-      </c>
-      <c r="E8">
-        <v>0.53</v>
-      </c>
-      <c r="F8">
-        <v>0.53</v>
-      </c>
-      <c r="G8">
-        <v>0.53</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.88</v>
       </c>
       <c r="J8">
@@ -5187,35 +5257,35 @@
       <c r="A9">
         <v>1455</v>
       </c>
-      <c r="B9">
-        <v>0.53</v>
-      </c>
-      <c r="C9">
-        <v>0.53</v>
-      </c>
-      <c r="D9">
-        <v>0.53</v>
-      </c>
-      <c r="E9">
-        <v>0.53</v>
-      </c>
-      <c r="F9">
-        <v>0.53</v>
-      </c>
-      <c r="G9">
-        <v>0.53</v>
-      </c>
-      <c r="H9">
-        <v>0.7</v>
-      </c>
-      <c r="I9">
-        <v>0.86</v>
+      <c r="B9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.88</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
-      <c r="K9">
-        <v>0.94</v>
+      <c r="K9" s="9">
+        <v>0.96</v>
       </c>
       <c r="L9">
         <v>1.1000000000000001</v>
@@ -5236,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CE4E5A-ADD0-4101-BB70-0C5E1C06C9B2}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,22 +5398,22 @@
       <c r="A3">
         <v>1440</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.53</v>
       </c>
       <c r="H3" s="1">
@@ -5369,22 +5439,22 @@
       <c r="A4">
         <v>1445</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.54</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="H4" s="1">
@@ -5410,22 +5480,22 @@
       <c r="A5">
         <v>1450</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="B5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.53</v>
       </c>
       <c r="H5" s="1">
@@ -5451,26 +5521,26 @@
       <c r="A6">
         <v>1455</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="B6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.8</v>
+      <c r="H6" s="10">
+        <v>0.81</v>
       </c>
       <c r="I6" s="1">
         <v>0.91</v>
@@ -5533,22 +5603,22 @@
       <c r="A8">
         <v>1450</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="B8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.53</v>
       </c>
       <c r="H8" s="1">
@@ -5574,22 +5644,22 @@
       <c r="A9">
         <v>1455</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="B9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.53</v>
       </c>
       <c r="H9" s="1">

--- a/räls_livslängd/Wear/mistra_results.xlsx
+++ b/räls_livslängd/Wear/mistra_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\räls_livslängd\Wear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A1D3F-FD56-40DA-AB57-D40195F51154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB33586-970C-4031-A926-86C9747E7A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="330" activeTab="3" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="330" activeTab="4" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
   </bookViews>
   <sheets>
     <sheet name="Wear" sheetId="1" r:id="rId1"/>
     <sheet name="RCF" sheetId="2" r:id="rId2"/>
     <sheet name="H_30t" sheetId="3" r:id="rId3"/>
     <sheet name="H_32t" sheetId="4" r:id="rId4"/>
+    <sheet name="gauge" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="51">
   <si>
     <t>month 1</t>
   </si>
@@ -169,12 +170,36 @@
   <si>
     <t>MB5</t>
   </si>
+  <si>
+    <t>6-1450</t>
+  </si>
+  <si>
+    <t>6-1455</t>
+  </si>
+  <si>
+    <t>Gauge</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW (init 2mm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW (init 1mm) </t>
+  </si>
+  <si>
+    <t>GW (init 3mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +247,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +283,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,14 +310,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,14 +352,69 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
     <cellStyle name="Dålig" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="80">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -900,23 +1028,4134 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$12:$M$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1445</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$13:$M$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$14:$M$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$15:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-1450</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$17:$M$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$18:$M$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$G$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-72A8-427D-8C78-111B889BA875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1692616944"/>
+        <c:axId val="1692623664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1692616944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692623664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1692623664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692616944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$12:$M$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1445</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$13:$M$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$14:$M$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$15:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-1450</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$17:$M$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64280000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83389999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6-1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_32t!$B$18:$M$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_32t!$G$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2991999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-65A9-4746-9530-62B69F4B7163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1692616944"/>
+        <c:axId val="1692623664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1692616944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692623664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1692623664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692616944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gauge!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GW (init 3mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gauge!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gauge!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0874999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9209-482F-BFF3-45EEE4B2FC55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gauge!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GW (init 2mm) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gauge!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gauge!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9209-482F-BFF3-45EEE4B2FC55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gauge!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GW (init 1mm) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gauge!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gauge!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0291666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4833333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9209-482F-BFF3-45EEE4B2FC55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1375665024"/>
+        <c:axId val="1375677984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1375665024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1450"/>
+          <c:min val="1440"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Gauge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375677984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1375677984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Yearly gauge widening (mm/y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375665024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>64986</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCA2F2F-4140-E890-D4DF-5A2B27E3FA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200758</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3290CB3-DFAD-41E8-908C-B3FC2181AD73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34FC2F-E820-1C3F-6D7D-93EE05ACD89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}" name="Table1" displayName="Table1" ref="A6:M12" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}" name="Table1" displayName="Table1" ref="A6:M12" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A6:M12" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3B84A3AE-21E5-4732-A4E0-3E009D92F618}" name="Column1" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{2DA5F0C7-44CB-4C46-95C0-28A0926CA079}" name="Column2" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{1B11899E-3685-432D-A707-EC8C605135FF}" name="Column3" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{EFDBFDA3-B42B-4CF8-91CF-2E43E93BEBDF}" name="Column4" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{3A17758A-41AE-498E-B445-93B26D5D95E4}" name="Column5" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{515C85E4-3BDD-469F-A0A5-902F07A30E85}" name="Column6" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{8CB7086E-9908-4182-84AE-DC25FB1570E8}" name="Column7" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{9DA8815D-3960-45C9-A8A1-B6C0DE0669CD}" name="Column8" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{60ECF41E-5906-47BA-AEC6-8D3F4A232A0F}" name="Column9" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{F21EDCD2-FBC7-47EA-8C87-6B883BC0E8B2}" name="Column10" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{1D63A6D9-FE9B-4004-91D2-71C745539B68}" name="Column11" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{902E6D82-90F7-486C-BE83-61B4B5D30802}" name="Column12" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{057454CE-864E-4596-A795-8D1B0808E8FE}" name="Column13" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{3B84A3AE-21E5-4732-A4E0-3E009D92F618}" name="Column1" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{2DA5F0C7-44CB-4C46-95C0-28A0926CA079}" name="Column2" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{1B11899E-3685-432D-A707-EC8C605135FF}" name="Column3" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{EFDBFDA3-B42B-4CF8-91CF-2E43E93BEBDF}" name="Column4" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{3A17758A-41AE-498E-B445-93B26D5D95E4}" name="Column5" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{515C85E4-3BDD-469F-A0A5-902F07A30E85}" name="Column6" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{8CB7086E-9908-4182-84AE-DC25FB1570E8}" name="Column7" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{9DA8815D-3960-45C9-A8A1-B6C0DE0669CD}" name="Column8" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{60ECF41E-5906-47BA-AEC6-8D3F4A232A0F}" name="Column9" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{F21EDCD2-FBC7-47EA-8C87-6B883BC0E8B2}" name="Column10" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{1D63A6D9-FE9B-4004-91D2-71C745539B68}" name="Column11" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{902E6D82-90F7-486C-BE83-61B4B5D30802}" name="Column12" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{057454CE-864E-4596-A795-8D1B0808E8FE}" name="Column13" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -989,22 +5228,22 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{71235EA0-2FC1-4D43-9607-61FBC7C16E72}" name="Table1613" displayName="Table1613" ref="A26:M32" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{71235EA0-2FC1-4D43-9607-61FBC7C16E72}" name="Table1613" displayName="Table1613" ref="A26:M32" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A26:M32" xr:uid="{71235EA0-2FC1-4D43-9607-61FBC7C16E72}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8348731C-27CF-406F-B0BE-9FC7A0E944CA}" name="Column1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E5BB3E8D-7E0B-466C-B6D8-F2D6FF823C93}" name="Column2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{1E13AEF0-8132-43CB-9C1D-043D4214DB71}" name="Column3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{68E0834C-3544-4018-A145-A493BFC7873C}" name="Column4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{683D10D4-0D7D-44D1-887C-02DA2C792F1D}" name="Column5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{699D2C2B-0572-442C-9BEB-372D00D10D4D}" name="Column6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{25BFFA08-329C-46FE-A7D2-AB75A4092645}" name="Column7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{A199F094-CC8E-4D0E-B531-04403227C14A}" name="Column8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{ABEA773E-1E47-4639-A6A5-9F3901D767C6}" name="Column9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{B819DF74-46A1-4C1C-AF56-57AAB7A7A31D}" name="Column10" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{DD73CCA8-E554-4F66-B227-80DE8DCCCDDC}" name="Column11" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{A20B9A40-8DD6-46D7-B504-787D14703ABB}" name="Column12" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{998FB574-FC0B-4AAD-AB7C-265EC7EB1553}" name="Column13" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8348731C-27CF-406F-B0BE-9FC7A0E944CA}" name="Column1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{E5BB3E8D-7E0B-466C-B6D8-F2D6FF823C93}" name="Column2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{1E13AEF0-8132-43CB-9C1D-043D4214DB71}" name="Column3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{68E0834C-3544-4018-A145-A493BFC7873C}" name="Column4" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{683D10D4-0D7D-44D1-887C-02DA2C792F1D}" name="Column5" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{699D2C2B-0572-442C-9BEB-372D00D10D4D}" name="Column6" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{25BFFA08-329C-46FE-A7D2-AB75A4092645}" name="Column7" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{A199F094-CC8E-4D0E-B531-04403227C14A}" name="Column8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{ABEA773E-1E47-4639-A6A5-9F3901D767C6}" name="Column9" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{B819DF74-46A1-4C1C-AF56-57AAB7A7A31D}" name="Column10" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{DD73CCA8-E554-4F66-B227-80DE8DCCCDDC}" name="Column11" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{A20B9A40-8DD6-46D7-B504-787D14703ABB}" name="Column12" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{998FB574-FC0B-4AAD-AB7C-265EC7EB1553}" name="Column13" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,30 +5316,30 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}" name="Table11018" displayName="Table11018" ref="A1:M9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M9" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}" name="Table11018" displayName="Table11018" ref="A1:M18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:M18" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3D795990-33F8-4BA3-ACE1-DB671AC0449D}" name="Rälprofil" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{ED9F4DD0-BD7B-4596-BA6D-F2A7BE574A4C}" name="Column1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{BF432C40-E10C-45BD-80B1-2F48E150DFF3}" name="Column2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7FF13807-F56F-4388-A6A2-DBB0614154C7}" name="Column3" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{3A36983E-CAA5-40D4-9646-BA8A750AC7F3}" name="Column4" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FA8AA01D-E1BD-48E2-BF84-76050636EFD0}" name="Column5" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E944700D-CC3D-4EE1-980A-DB95DD34A1A1}" name="Column6" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{5C63B602-D97C-41B6-9AEA-173905DD1A16}" name="Column7" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{C2546431-AFF1-4DA7-8BF5-AFF302A1D270}" name="Column8" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{5B481BBA-FC01-406D-B0AB-10A51DA82212}" name="Column9" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{4D0F3C10-6738-4105-8FED-3B4BB0E292F7}" name="Column10" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{69D4994C-A97C-4558-BF23-1D878608CB92}" name="Column11" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{7F80E5F4-C88C-45E9-998F-C78B54DB3819}" name="Column12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3D795990-33F8-4BA3-ACE1-DB671AC0449D}" name="Rälprofil" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{ED9F4DD0-BD7B-4596-BA6D-F2A7BE574A4C}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BF432C40-E10C-45BD-80B1-2F48E150DFF3}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7FF13807-F56F-4388-A6A2-DBB0614154C7}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3A36983E-CAA5-40D4-9646-BA8A750AC7F3}" name="Column4" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FA8AA01D-E1BD-48E2-BF84-76050636EFD0}" name="Column5" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E944700D-CC3D-4EE1-980A-DB95DD34A1A1}" name="Column6" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5C63B602-D97C-41B6-9AEA-173905DD1A16}" name="Column7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C2546431-AFF1-4DA7-8BF5-AFF302A1D270}" name="Column8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{5B481BBA-FC01-406D-B0AB-10A51DA82212}" name="Column9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{4D0F3C10-6738-4105-8FED-3B4BB0E292F7}" name="Column10" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{69D4994C-A97C-4558-BF23-1D878608CB92}" name="Column11" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{7F80E5F4-C88C-45E9-998F-C78B54DB3819}" name="Column12" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}" name="Table31220" displayName="Table31220" ref="A1:M9" totalsRowShown="0">
-  <autoFilter ref="A1:M9" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}" name="Table31220" displayName="Table31220" ref="A1:M18" totalsRowShown="0">
+  <autoFilter ref="A1:M18" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9C8058E9-BC3D-49B2-9178-95D42698ABB2}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{7C15D0A5-F911-47B6-8667-DAF42DBACF72}" name="Column2"/>
@@ -1115,6 +5354,23 @@
     <tableColumn id="11" xr3:uid="{261632F3-99C4-43B7-8172-1E5BB206C491}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{AB8BCF59-7B7B-4F6A-8BB4-709BBB43BE59}" name="Column12"/>
     <tableColumn id="13" xr3:uid="{CE733DB8-A375-4972-84AC-2E0EDC0CE684}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}" name="Tabell18" displayName="Tabell18" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4567D663-8969-4E9A-9161-3C5B988DAA7C}" name="Gauge"/>
+    <tableColumn id="5" xr3:uid="{C2971792-C04F-471D-AFAF-0E1A58D08F15}" name="GW (init 1mm) " dataDxfId="4" dataCellStyle="Procent"/>
+    <tableColumn id="6" xr3:uid="{F080338E-14D1-49F1-8FB5-4ED8E3E51ABA}" name="GW (init 2mm) " dataDxfId="3" dataCellStyle="Procent"/>
+    <tableColumn id="4" xr3:uid="{0F8743AB-1E0B-4839-AC6B-618994396645}" name="GW (init 3mm)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1A2405C4-3D51-4D7F-AF0B-4B6F325617D3}" name="force" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{689A6B0F-0009-4252-98A3-07AE7BA86C05}" name="increase" dataDxfId="0" dataCellStyle="Procent">
+      <calculatedColumnFormula>(Tabell18[[#This Row],[force]]-E1)/E1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,22 +5399,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}" name="Table110" displayName="Table110" ref="A26:M32" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}" name="Table110" displayName="Table110" ref="A26:M32" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A26:M32" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9EA327D2-4F90-461B-B981-3F6AF8D34AA4}" name="Column1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{959B5B6B-3107-48CE-A4C2-1695F56C39CF}" name="Column2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{D4515B36-F8CE-4A05-A58F-936714C04CE9}" name="Column3" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{080C2810-907E-4D3C-A106-76731516CC24}" name="Column4" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{2F1FBFB1-1401-4D97-80FE-DFDB862EB56F}" name="Column5" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{43D6359A-C0B5-4140-A846-43A8BBF323A8}" name="Column6" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{DAB23FEF-1A54-4917-865D-1C78F0728F62}" name="Column7" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{3C27197F-BF59-40B1-8147-19D09C460D09}" name="Column8" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{4A68AF0C-E51C-4ABC-9CF8-976047D5A80E}" name="Column9" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{88A69B75-9987-4AF1-9BD9-120ECF06AFD9}" name="Column10" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{07DDF5E7-7787-4CB0-B6BD-6904067B5ECF}" name="Column11" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{35F664D4-4872-4113-B0F7-3741761DF4A5}" name="Column12" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{0DAD3FB4-1F8C-43D0-B6F4-F88F6985531B}" name="Column13" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{9EA327D2-4F90-461B-B981-3F6AF8D34AA4}" name="Column1" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{959B5B6B-3107-48CE-A4C2-1695F56C39CF}" name="Column2" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{D4515B36-F8CE-4A05-A58F-936714C04CE9}" name="Column3" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{080C2810-907E-4D3C-A106-76731516CC24}" name="Column4" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{2F1FBFB1-1401-4D97-80FE-DFDB862EB56F}" name="Column5" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{43D6359A-C0B5-4140-A846-43A8BBF323A8}" name="Column6" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{DAB23FEF-1A54-4917-865D-1C78F0728F62}" name="Column7" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{3C27197F-BF59-40B1-8147-19D09C460D09}" name="Column8" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{4A68AF0C-E51C-4ABC-9CF8-976047D5A80E}" name="Column9" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{88A69B75-9987-4AF1-9BD9-120ECF06AFD9}" name="Column10" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{07DDF5E7-7787-4CB0-B6BD-6904067B5ECF}" name="Column11" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{35F664D4-4872-4113-B0F7-3741761DF4A5}" name="Column12" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{0DAD3FB4-1F8C-43D0-B6F4-F88F6985531B}" name="Column13" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1275,22 +5531,22 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}" name="Table16" displayName="Table16" ref="A6:M12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}" name="Table16" displayName="Table16" ref="A6:M12" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A6:M12" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34B34F3E-82B4-4E1B-B48F-06B2BFB6DF86}" name="Column1" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{D5CC1066-7E72-4F76-B5D9-8D6A1C331E8F}" name="Column2" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{7D28EF99-DAC5-4977-A286-0AA6ABD11AE0}" name="Column3" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{73E72F70-156C-4110-9006-FCCB17CF6449}" name="Column4" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{08B169FF-B2DD-416D-AF03-27DBDA21DBCF}" name="Column5" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{AE316871-1529-44D3-BCE6-2708D1DC58C1}" name="Column6" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{8A09F402-0546-47C6-A186-1C55C1925879}" name="Column7" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{C711F7C8-E4AF-4641-94E0-DBBEF98E04C7}" name="Column8" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{3A3BB2AD-DDD6-4C1F-BD32-5B1D1B898192}" name="Column9" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{3D98E234-94E6-4244-902B-26181B22047A}" name="Column10" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{C0EF8DC6-18AC-469D-9C45-10711B8E3267}" name="Column11" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{EE8B5C56-E5E0-4F09-8830-0471C37ECF6B}" name="Column12" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{812AD289-ABCB-42FB-8DE9-8E2357D09E11}" name="Column13" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{34B34F3E-82B4-4E1B-B48F-06B2BFB6DF86}" name="Column1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{D5CC1066-7E72-4F76-B5D9-8D6A1C331E8F}" name="Column2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{7D28EF99-DAC5-4977-A286-0AA6ABD11AE0}" name="Column3" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{73E72F70-156C-4110-9006-FCCB17CF6449}" name="Column4" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{08B169FF-B2DD-416D-AF03-27DBDA21DBCF}" name="Column5" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{AE316871-1529-44D3-BCE6-2708D1DC58C1}" name="Column6" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{8A09F402-0546-47C6-A186-1C55C1925879}" name="Column7" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{C711F7C8-E4AF-4641-94E0-DBBEF98E04C7}" name="Column8" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{3A3BB2AD-DDD6-4C1F-BD32-5B1D1B898192}" name="Column9" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{3D98E234-94E6-4244-902B-26181B22047A}" name="Column10" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{C0EF8DC6-18AC-469D-9C45-10711B8E3267}" name="Column11" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{EE8B5C56-E5E0-4F09-8830-0471C37ECF6B}" name="Column12" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{812AD289-ABCB-42FB-8DE9-8E2357D09E11}" name="Column13" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1595,8 +5851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B277D25-6310-4763-A9A3-46E6FFF4FD45}">
   <dimension ref="A5:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB12" sqref="Q9:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,8 +7525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575556C3-9CD1-4D3F-93A7-9FEC3F5A934D}">
   <dimension ref="A6:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB19" sqref="Q18:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,10 +9166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C240127D-17EB-4812-A2BA-3FDC0D42802F}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M9" sqref="A1:M9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,13 +9368,13 @@
         <v>0.53</v>
       </c>
       <c r="H5" s="8">
-        <v>0.89500000000000002</v>
+        <v>0.74</v>
       </c>
       <c r="I5" s="8">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J5" s="8">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="K5">
         <v>1.03</v>
@@ -5276,41 +9532,382 @@
         <v>0.53</v>
       </c>
       <c r="H9" s="8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I9" s="4">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
       <c r="K9" s="9">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="L9">
         <v>1.1000000000000001</v>
       </c>
       <c r="M9">
         <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1440</v>
+      </c>
+      <c r="B12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.216</v>
+      </c>
+      <c r="I12">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.48</v>
+      </c>
+      <c r="L12">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="M12">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1445</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="L13">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="M13">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1450</v>
+      </c>
+      <c r="B14">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.33</v>
+      </c>
+      <c r="J14">
+        <v>0.433</v>
+      </c>
+      <c r="K14">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="M14">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1455</v>
+      </c>
+      <c r="B15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.44</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="L15">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="M15">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.104</v>
+      </c>
+      <c r="H17">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="L17">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CE4E5A-ADD0-4101-BB70-0C5E1C06C9B2}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5354,7 +9951,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
@@ -5540,7 +10137,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H6" s="10">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="1">
         <v>0.91</v>
@@ -5559,7 +10156,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -5681,10 +10278,576 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1440</v>
+      </c>
+      <c r="B12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.37</v>
+      </c>
+      <c r="K12">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1445</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.433</v>
+      </c>
+      <c r="K13">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1450</v>
+      </c>
+      <c r="B14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E14">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F14">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.625</v>
+      </c>
+      <c r="M14">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1455</v>
+      </c>
+      <c r="B15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.114</v>
+      </c>
+      <c r="H15">
+        <v>0.249</v>
+      </c>
+      <c r="I15">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M15">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.379</v>
+      </c>
+      <c r="J17">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="K17">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="L17">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="M17">
+        <v>0.83389999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C18">
+        <v>6.93E-2</v>
+      </c>
+      <c r="D18">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.121</v>
+      </c>
+      <c r="F18">
+        <v>0.1434</v>
+      </c>
+      <c r="G18">
+        <v>0.1739</v>
+      </c>
+      <c r="H18">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="J18">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="K18">
+        <v>1.0952999999999999</v>
+      </c>
+      <c r="L18">
+        <v>1.2991999999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.5158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2C0561-E939-4C5B-8434-C589F3C83934}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1440</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1442</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.0291666666666666</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.0583333333333331</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>3.0874999999999995</v>
+      </c>
+      <c r="E3">
+        <v>12.35</v>
+      </c>
+      <c r="F3" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E2)/E2</f>
+        <v>2.9166666666666636E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1445</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.0416666666666665</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D3*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>3.1249999999999996</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E3)/E3</f>
+        <v>1.2145748987854281E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1446</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.075</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.15</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D4*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>3.2249999999999996</v>
+      </c>
+      <c r="E5">
+        <v>12.9</v>
+      </c>
+      <c r="F5" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E4)/E4</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1447</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C5*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>3.45</v>
+      </c>
+      <c r="E6">
+        <v>13.8</v>
+      </c>
+      <c r="F6" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E5)/E5</f>
+        <v>6.9767441860465143E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1448</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.2416666666666667</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.4833333333333334</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>3.7250000000000001</v>
+      </c>
+      <c r="E7">
+        <v>14.9</v>
+      </c>
+      <c r="F7" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E6)/E6</f>
+        <v>7.9710144927536197E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>1449</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B7*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C7*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D7*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E7)/E7</f>
+        <v>0.1006711409395972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>1450</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B8*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C8*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D8*(1+Tabell18[[#This Row],[increase]])</f>
+        <v>4.45</v>
+      </c>
+      <c r="E9">
+        <v>17.8</v>
+      </c>
+      <c r="F9" s="17">
+        <f>(Tabell18[[#This Row],[force]]-E8)/E8</f>
+        <v>8.5365853658536717E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/räls_livslängd/Wear/mistra_results.xlsx
+++ b/räls_livslängd/Wear/mistra_results.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\räls_livslängd\Wear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB33586-970C-4031-A926-86C9747E7A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A22D8C-1E69-49FA-AD2A-0E456B164DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="330" activeTab="4" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" tabRatio="330" firstSheet="3" activeTab="3" xr2:uid="{3A71664D-9E65-4FDA-91B2-AC2A81079053}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wear" sheetId="1" r:id="rId1"/>
-    <sheet name="RCF" sheetId="2" r:id="rId2"/>
+    <sheet name="Wear-raw" sheetId="1" r:id="rId1"/>
+    <sheet name="RCF-raw" sheetId="2" r:id="rId2"/>
     <sheet name="H_30t" sheetId="3" r:id="rId3"/>
     <sheet name="H_32t" sheetId="4" r:id="rId4"/>
     <sheet name="gauge" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="57">
   <si>
     <t>month 1</t>
   </si>
@@ -177,29 +178,47 @@
     <t>6-1455</t>
   </si>
   <si>
-    <t>Gauge</t>
-  </si>
-  <si>
     <t>force</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t xml:space="preserve">GW (init 2mm) </t>
+    <t>RCF depth</t>
   </si>
   <si>
-    <t xml:space="preserve">GW (init 1mm) </t>
+    <t>residual RCF</t>
   </si>
   <si>
-    <t>GW (init 3mm)</t>
+    <t>Residual RCF</t>
+  </si>
+  <si>
+    <t>MB6-1450</t>
+  </si>
+  <si>
+    <t>MB6-1455</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Track gauge</t>
+  </si>
+  <si>
+    <t>Initially 1 mm</t>
+  </si>
+  <si>
+    <t>Initially 2 mm</t>
+  </si>
+  <si>
+    <t>Initially 3 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,12 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,12 +292,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,8 +308,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -332,33 +345,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
@@ -367,7 +403,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Procent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="95">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -375,7 +411,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -394,7 +430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -413,7 +449,127 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1042,7 +1198,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Natural wear @45 degree for different gauges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1076,26 +1287,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1114,29 +1322,26 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_30t!$G$12:$M$12</c:f>
+              <c:f>H_30t!$H$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216</c:v>
+                  <c:v>0.29799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29799999999999999</c:v>
+                  <c:v>0.36799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.57199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.67400000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -1177,26 +1382,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1215,29 +1417,26 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_30t!$G$13:$M$13</c:f>
+              <c:f>H_30t!$H$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29899999999999999</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.373</c:v>
+                  <c:v>0.433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.749</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,26 +1477,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1316,29 +1512,26 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_30t!$G$14:$M$14</c:f>
+              <c:f>H_30t!$H$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.29899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.36799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.433</c:v>
+                  <c:v>0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58899999999999997</c:v>
+                  <c:v>0.67400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.78800000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1379,26 +1572,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1417,29 +1607,26 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_30t!$G$15:$M$15</c:f>
+              <c:f>H_30t!$H$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.30399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30399999999999999</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44</c:v>
+                  <c:v>0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58699999999999997</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.80900000000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -1452,16 +1639,396 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1692616944"/>
+        <c:axId val="1692623664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1692616944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Months (since last grinding)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692623664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1692623664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Natural wear</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692616944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>RCF depth for different gauges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_30t!$A$17</c:f>
+              <c:f>H_30t!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6-1450</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1469,7 +2036,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1480,26 +2047,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1514,34 +2078,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>H_30t!$B$17:$M$17</c15:sqref>
+                    <c15:sqref>H_30t!$B$30:$M$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_30t!$G$17:$M$17</c:f>
+              <c:f>H_30t!$H$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.104</c:v>
+                  <c:v>0.1221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.16639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.2001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39900000000000002</c:v>
+                  <c:v>0.25019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55400000000000005</c:v>
+                  <c:v>0.29220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71099999999999997</c:v>
+                  <c:v>0.32050000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +2110,696 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-72A8-427D-8C78-111B889BA875}"/>
+              <c16:uniqueId val="{00000000-AADD-49CB-9263-A1ADE8E11827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1445</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$31:$M$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$H$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48130000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AADD-49CB-9263-A1ADE8E11827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1450</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$32:$M$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$H$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AADD-49CB-9263-A1ADE8E11827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_30t!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>H_30t!$B$33:$M$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>H_30t!$H$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5916999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AADD-49CB-9263-A1ADE8E11827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="874876000"/>
+        <c:axId val="874877920"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="874876000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Months (since last grinding)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874877920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="874877920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>RCF depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874876000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>H_32t!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>H_32t!$B$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6458-47B6-9F47-699F211B23EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1558,11 +2808,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_30t!$A$18</c:f>
+              <c:f>H_30t!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6-1455</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1579,70 +2829,47 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>H_30t!$B$18:$M$18</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>H_30t!$G$18:$M$18</c:f>
+              <c:f>H_30t!$B$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35299999999999998</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80900000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +2877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-72A8-427D-8C78-111B889BA875}"/>
+              <c16:uniqueId val="{00000003-CF84-44D9-BAFA-1667634FE628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1665,6 +2892,378 @@
         <c:smooth val="0"/>
         <c:axId val="1692616944"/>
         <c:axId val="1692623664"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1440</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$B$12:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.8999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.6000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.20599999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.30299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.42499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.53700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.66500000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-65A9-4746-9530-62B69F4B7163}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1445</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$B$13:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>6.6000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.8999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.105</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.112</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.249</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.33500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.433</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.49299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.61099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.70399999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-65A9-4746-9530-62B69F4B7163}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1450</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_32t!$B$14:$M$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>3.7999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.9000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.8E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.6999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.25800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.34499999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.44600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.54100000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.625</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.72099999999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-65A9-4746-9530-62B69F4B7163}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_30t!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1440</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H_30t!$B$12:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.5E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.7000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.8000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.2999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.5999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.216</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.29799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.36799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.57199999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.67400000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-CF84-44D9-BAFA-1667634FE628}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1692616944"/>
@@ -1849,7 +3448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -1863,7 +3462,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>RCF depth for different gauges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1874,7 +3528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_32t!$A$12</c:f>
+              <c:f>H_32t!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1897,26 +3551,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -1931,34 +3582,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>H_32t!$B$12:$M$12</c15:sqref>
+                    <c15:sqref>H_32t!$B$30:$M$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_32t!$G$12:$M$12</c:f>
+              <c:f>H_32t!$H$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.1212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.18720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37</c:v>
+                  <c:v>0.30020000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.34410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,7 +3614,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65A9-4746-9530-62B69F4B7163}"/>
+              <c16:uniqueId val="{00000000-CCC7-4D6D-B555-A0E50017A0A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1975,7 +3623,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_32t!$A$13</c:f>
+              <c:f>H_32t!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1998,26 +3646,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -2032,34 +3677,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>H_32t!$B$13:$M$13</c15:sqref>
+                    <c15:sqref>H_32t!$B$31:$M$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_32t!$G$13:$M$13</c:f>
+              <c:f>H_32t!$H$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.112</c:v>
+                  <c:v>0.1318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.19819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>0.28920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.433</c:v>
+                  <c:v>0.3826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49299999999999999</c:v>
+                  <c:v>0.45350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72099999999999997</c:v>
+                  <c:v>0.52339999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +3709,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-65A9-4746-9530-62B69F4B7163}"/>
+              <c16:uniqueId val="{00000001-CCC7-4D6D-B555-A0E50017A0A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2076,7 +3718,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_32t!$A$14</c:f>
+              <c:f>H_32t!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2099,26 +3741,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -2133,34 +3772,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>H_32t!$B$14:$M$14</c15:sqref>
+                    <c15:sqref>H_32t!$B$32:$M$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_32t!$G$14:$M$14</c:f>
+              <c:f>H_32t!$H$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.43690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.58540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44600000000000001</c:v>
+                  <c:v>0.70579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.81259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70399999999999996</c:v>
+                  <c:v>0.9234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,7 +3804,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-65A9-4746-9530-62B69F4B7163}"/>
+              <c16:uniqueId val="{00000002-CCC7-4D6D-B555-A0E50017A0A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2177,7 +3813,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>H_32t!$A$15</c:f>
+              <c:f>H_32t!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2200,26 +3836,23 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="7"/>
+              <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>8</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>9</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>10</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
                 <c:v>12</c:v>
               </c:pt>
               <c:extLst>
@@ -2234,34 +3867,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>H_32t!$B$15:$M$15</c15:sqref>
+                    <c15:sqref>H_32t!$B$33:$M$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>H_32t!$G$15:$M$15</c:f>
+              <c:f>H_32t!$H$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.114</c:v>
+                  <c:v>0.39639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.249</c:v>
+                  <c:v>0.58169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53700000000000003</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>1.1195999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79200000000000004</c:v>
+                  <c:v>1.244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,209 +3899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-65A9-4746-9530-62B69F4B7163}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>H_32t!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6-1450</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>H_32t!$B$17:$M$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>H_32t!$G$17:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.5899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.379</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53139999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64280000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83389999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-65A9-4746-9530-62B69F4B7163}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>H_32t!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6-1455</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>H_32t!$B$18:$M$18</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>H_32t!$G$18:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.1739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67789999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85870000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0952999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2991999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-65A9-4746-9530-62B69F4B7163}"/>
+              <c16:uniqueId val="{00000003-CCC7-4D6D-B555-A0E50017A0A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2484,16 +3912,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1692616944"/>
-        <c:axId val="1692623664"/>
+        <c:axId val="874876000"/>
+        <c:axId val="874877920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1692616944"/>
+        <c:axId val="874876000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Months (since last grinding)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2531,7 +4014,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692623664"/>
+        <c:crossAx val="874877920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2539,7 +4022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1692623664"/>
+        <c:axId val="874877920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,6 +4042,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>RCF depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2590,7 +4128,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692616944"/>
+        <c:crossAx val="874876000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,7 +4208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -2684,7 +4222,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> of t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>rack gauge widening for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> different initial rates </a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2699,7 +4299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GW (init 3mm)</c:v>
+                  <c:v>Initially 3 mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2765,7 +4365,7 @@
             <c:numRef>
               <c:f>gauge!$D$2:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -2810,7 +4410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GW (init 2mm) </c:v>
+                  <c:v>Initially 2 mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2876,7 +4476,7 @@
             <c:numRef>
               <c:f>gauge!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -2921,7 +4521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GW (init 1mm) </c:v>
+                  <c:v>Initially 1 mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2987,7 +4587,7 @@
             <c:numRef>
               <c:f>gauge!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3064,12 +4664,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3077,8 +4674,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Gauge</a:t>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Track gauge (mm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3096,12 +4693,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3134,12 +4728,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3157,6 +4748,8 @@
         <c:axId val="1375677984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.9000000000000004"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3181,12 +4774,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3194,7 +4784,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sv-SE"/>
+                  <a:rPr lang="sv-SE" sz="1200"/>
                   <a:t>Yearly gauge widening (mm/y)</a:t>
                 </a:r>
               </a:p>
@@ -3213,12 +4803,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3229,7 +4816,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3251,12 +4838,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3279,7 +4863,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3293,12 +4877,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3333,7 +4914,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="sv-SE"/>
     </a:p>
@@ -3427,6 +5012,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4499,6 +6164,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5052,6 +7749,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2F83B6-71C2-B0DB-F563-63F148BAF4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5095,6 +7828,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CEF085-1B3E-447F-B4EB-B711F8BF7AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5102,16 +7873,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5140,28 +7911,116 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}" name="Table1" displayName="Table1" ref="A6:M12" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}" name="Table1" displayName="Table1" ref="A6:M12" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A6:M12" xr:uid="{A2C4A724-BD93-4AB6-A12E-D83178CA1932}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3B84A3AE-21E5-4732-A4E0-3E009D92F618}" name="Column1" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{2DA5F0C7-44CB-4C46-95C0-28A0926CA079}" name="Column2" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{1B11899E-3685-432D-A707-EC8C605135FF}" name="Column3" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{EFDBFDA3-B42B-4CF8-91CF-2E43E93BEBDF}" name="Column4" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{3A17758A-41AE-498E-B445-93B26D5D95E4}" name="Column5" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{515C85E4-3BDD-469F-A0A5-902F07A30E85}" name="Column6" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{8CB7086E-9908-4182-84AE-DC25FB1570E8}" name="Column7" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{9DA8815D-3960-45C9-A8A1-B6C0DE0669CD}" name="Column8" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{60ECF41E-5906-47BA-AEC6-8D3F4A232A0F}" name="Column9" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{F21EDCD2-FBC7-47EA-8C87-6B883BC0E8B2}" name="Column10" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{1D63A6D9-FE9B-4004-91D2-71C745539B68}" name="Column11" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{902E6D82-90F7-486C-BE83-61B4B5D30802}" name="Column12" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{057454CE-864E-4596-A795-8D1B0808E8FE}" name="Column13" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{3B84A3AE-21E5-4732-A4E0-3E009D92F618}" name="Column1" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{2DA5F0C7-44CB-4C46-95C0-28A0926CA079}" name="Column2" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{1B11899E-3685-432D-A707-EC8C605135FF}" name="Column3" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{EFDBFDA3-B42B-4CF8-91CF-2E43E93BEBDF}" name="Column4" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{3A17758A-41AE-498E-B445-93B26D5D95E4}" name="Column5" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{515C85E4-3BDD-469F-A0A5-902F07A30E85}" name="Column6" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{8CB7086E-9908-4182-84AE-DC25FB1570E8}" name="Column7" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{9DA8815D-3960-45C9-A8A1-B6C0DE0669CD}" name="Column8" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{60ECF41E-5906-47BA-AEC6-8D3F4A232A0F}" name="Column9" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{F21EDCD2-FBC7-47EA-8C87-6B883BC0E8B2}" name="Column10" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{1D63A6D9-FE9B-4004-91D2-71C745539B68}" name="Column11" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{902E6D82-90F7-486C-BE83-61B4B5D30802}" name="Column12" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{057454CE-864E-4596-A795-8D1B0808E8FE}" name="Column13" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D851E1D9-B82D-4FF0-9BED-F006C891C01A}" name="Table21119" displayName="Table21119" ref="A54:M58" totalsRowShown="0">
+  <autoFilter ref="A54:M58" xr:uid="{D851E1D9-B82D-4FF0-9BED-F006C891C01A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{77D31B92-E161-415C-9987-84C70C5BE9F8}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{A996B156-07A9-400B-BB87-CD3ACAE76E52}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{5BB794FB-6DB9-4642-B341-E15A8CED0FA0}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{13A32D62-A4F9-461D-ACEC-F8370B022672}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{BB7979C8-C8A8-4D4A-A258-BBFFD0B978F8}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{6742F5B2-6F3B-4030-8B47-C590A257D0E8}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{CBE929E0-626D-48E0-8DDA-F7051DB52F30}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{6A0CCCFF-DFA7-43D8-9377-39EFA2B9BD5C}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{ADFF0A71-0857-44D5-A3E4-7101D0757CAC}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{7CBBC507-9413-4032-AD2F-964C65A9CCE5}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{BE3934E1-FCE0-421F-B597-866DF6C52253}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{D0933A88-EB0F-421F-AC48-611867F5C5B9}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{392693BC-94C3-451B-A4BD-05CE3E82F0B8}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22572AD1-B80E-46B2-8C64-D6B0AA697A5A}" name="Table3122023" displayName="Table3122023" ref="P44:AB50" totalsRowShown="0">
+  <autoFilter ref="P44:AB50" xr:uid="{22572AD1-B80E-46B2-8C64-D6B0AA697A5A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DC0A0263-32B1-4D8E-A425-4E75E74307CC}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{594D980F-02C6-4F8F-B396-C00026D1F983}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{F964B35C-384F-449E-A4E0-B87777FDF2F5}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{983A6C37-DBDD-4A5F-9A41-3E9196D12397}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{B5E5F06C-D0FF-4FFF-A11F-CEA6074E2BDD}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{FA1C92A1-6FE9-4519-B370-2CE86C2BD928}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{85CA3A6C-23BB-42DF-B97F-C9DCA98737D9}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{44BCD94D-FF3A-44EA-9362-54130E20F59D}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{88D19EDD-4F87-4AF4-8281-FAD705DDC6E8}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{3C0A5A70-311F-4795-9EC6-1DC76A04080D}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{03C5A8B1-DDC0-4831-A85B-8A1AFA707148}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{5478FF84-4940-4C62-98FA-BDC60C9065A8}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{E646B591-3AD1-4BD6-B268-F27307224665}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{FA72D4BF-6E35-4F65-9A3F-9D236B0F29DE}" name="Table41521" displayName="Table41521" ref="P54:AB58" totalsRowShown="0">
+  <autoFilter ref="P54:AB58" xr:uid="{FA72D4BF-6E35-4F65-9A3F-9D236B0F29DE}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4065A4F1-9D6A-4377-94C3-A01E595DB682}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{44570BDF-94B7-44A7-B40C-BFB7BA46CBF5}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{9422D8A7-03E2-4836-9DCF-D80E45812589}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{A1E8CACE-52CF-42C4-A5C8-03C097F1A73A}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{D2B114D8-8A87-41AE-AEE3-4757D24DFABE}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{F24CF6C3-2282-4328-8846-20A6CD1AA32B}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{8CDD3006-7A48-4B6E-AAB4-B7326140363A}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{E81A1190-B550-4380-8CF7-1F40D62C7249}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{A31BE94E-6E62-4C8B-8A0C-936BBACE6580}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{BEAC43FE-4EFC-42B6-8B92-7C8742060429}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{41EE8102-9BF0-4793-BC56-984425CF72FF}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{A0DC646B-9C65-4596-B114-BEE2D7E01E68}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{E2C96A03-3F4F-40C2-8365-EC0A34CD9086}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}" name="Table16" displayName="Table16" ref="A6:M12" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A6:M12" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{34B34F3E-82B4-4E1B-B48F-06B2BFB6DF86}" name="Column1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{D5CC1066-7E72-4F76-B5D9-8D6A1C331E8F}" name="Column2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{7D28EF99-DAC5-4977-A286-0AA6ABD11AE0}" name="Column3" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{73E72F70-156C-4110-9006-FCCB17CF6449}" name="Column4" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{08B169FF-B2DD-416D-AF03-27DBDA21DBCF}" name="Column5" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{AE316871-1529-44D3-BCE6-2708D1DC58C1}" name="Column6" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{8A09F402-0546-47C6-A186-1C55C1925879}" name="Column7" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{C711F7C8-E4AF-4641-94E0-DBBEF98E04C7}" name="Column8" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{3A3BB2AD-DDD6-4C1F-BD32-5B1D1B898192}" name="Column9" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{3D98E234-94E6-4244-902B-26181B22047A}" name="Column10" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{C0EF8DC6-18AC-469D-9C45-10711B8E3267}" name="Column11" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{EE8B5C56-E5E0-4F09-8830-0471C37ECF6B}" name="Column12" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{812AD289-ABCB-42FB-8DE9-8E2357D09E11}" name="Column13" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B378D1CB-16CD-4CA0-B254-374A77263B61}" name="Table28" displayName="Table28" ref="A15:M19" totalsRowShown="0">
   <autoFilter ref="A15:M19" xr:uid="{B378D1CB-16CD-4CA0-B254-374A77263B61}"/>
   <tableColumns count="13">
@@ -5183,7 +8042,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1656A7BC-36DA-45F1-9E3D-079525D08222}" name="Table37" displayName="Table37" ref="P6:AB12" totalsRowShown="0">
   <autoFilter ref="P6:AB12" xr:uid="{1656A7BC-36DA-45F1-9E3D-079525D08222}"/>
   <tableColumns count="13">
@@ -5205,7 +8064,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{94F42E64-CA0D-4F92-8E02-290636B33DFB}" name="Table49" displayName="Table49" ref="P15:AB19" totalsRowShown="0">
   <autoFilter ref="P15:AB19" xr:uid="{94F42E64-CA0D-4F92-8E02-290636B33DFB}"/>
   <tableColumns count="13">
@@ -5227,7 +8086,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{71235EA0-2FC1-4D43-9607-61FBC7C16E72}" name="Table1613" displayName="Table1613" ref="A26:M32" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A26:M32" xr:uid="{71235EA0-2FC1-4D43-9607-61FBC7C16E72}"/>
   <tableColumns count="13">
@@ -5249,7 +8108,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EAF9C72D-8C6F-43A2-8997-0D95FDD3ADB9}" name="Table2814" displayName="Table2814" ref="A35:M39" totalsRowShown="0">
   <autoFilter ref="A35:M39" xr:uid="{EAF9C72D-8C6F-43A2-8997-0D95FDD3ADB9}"/>
   <tableColumns count="13">
@@ -5271,7 +8130,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A1A34528-FCF7-48FC-96DD-A668BA467265}" name="Table3716" displayName="Table3716" ref="P26:AB32" totalsRowShown="0">
   <autoFilter ref="P26:AB32" xr:uid="{A1A34528-FCF7-48FC-96DD-A668BA467265}"/>
   <tableColumns count="13">
@@ -5288,89 +8147,6 @@
     <tableColumn id="11" xr3:uid="{057711F6-3657-4E70-99CF-87871C483065}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{3A24F786-5C6B-4F9D-B3A3-F1BB4A296A29}" name="Column12"/>
     <tableColumn id="13" xr3:uid="{BAE4E82F-28B2-447E-BF1A-B481C5F00A97}" name="Column13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{67642355-081B-4D56-A154-FE914252D162}" name="Table4917" displayName="Table4917" ref="P35:AB39" totalsRowShown="0">
-  <autoFilter ref="P35:AB39" xr:uid="{67642355-081B-4D56-A154-FE914252D162}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BDAB7725-135D-4433-8C92-797D54124E74}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{D85AA1A6-CE17-443F-B1BD-729AB438BCEF}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{19E623C3-9F98-462D-BDD4-80B2D771EF72}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{174FDEAE-858A-4B86-9B13-7EA99678C404}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{59B64F54-16C7-4FB8-B2F3-2E0C2ACC1202}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{C275536B-7172-4933-BAB6-3BB1F3950669}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{29DF5C6E-4382-4E58-A271-F607B519552C}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{989AEF3C-157A-45CB-9FA4-E897D789A463}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{A7EC6865-8E33-4A7D-B407-829928937754}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{9F644476-070E-4F22-B7C8-2BF85F0793EC}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{0C042170-4D28-4983-925E-19EADC66084F}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{C84172D3-CF4C-48D6-A7D9-F1D12D2F140E}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{99709585-08F1-4368-B383-3E348E84E23F}" name="Column13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}" name="Table11018" displayName="Table11018" ref="A1:M18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:M18" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3D795990-33F8-4BA3-ACE1-DB671AC0449D}" name="Rälprofil" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{ED9F4DD0-BD7B-4596-BA6D-F2A7BE574A4C}" name="Column1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{BF432C40-E10C-45BD-80B1-2F48E150DFF3}" name="Column2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{7FF13807-F56F-4388-A6A2-DBB0614154C7}" name="Column3" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3A36983E-CAA5-40D4-9646-BA8A750AC7F3}" name="Column4" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{FA8AA01D-E1BD-48E2-BF84-76050636EFD0}" name="Column5" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{E944700D-CC3D-4EE1-980A-DB95DD34A1A1}" name="Column6" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{5C63B602-D97C-41B6-9AEA-173905DD1A16}" name="Column7" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{C2546431-AFF1-4DA7-8BF5-AFF302A1D270}" name="Column8" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{5B481BBA-FC01-406D-B0AB-10A51DA82212}" name="Column9" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{4D0F3C10-6738-4105-8FED-3B4BB0E292F7}" name="Column10" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{69D4994C-A97C-4558-BF23-1D878608CB92}" name="Column11" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{7F80E5F4-C88C-45E9-998F-C78B54DB3819}" name="Column12" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}" name="Table31220" displayName="Table31220" ref="A1:M18" totalsRowShown="0">
-  <autoFilter ref="A1:M18" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9C8058E9-BC3D-49B2-9178-95D42698ABB2}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{7C15D0A5-F911-47B6-8667-DAF42DBACF72}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{9CA55841-CDE2-4516-A226-0B425DBA012B}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{3B426003-9BBA-48DD-9FDE-3E32174156D1}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{563566FB-9460-4B29-B5A2-068152485169}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{5019D93C-3400-436D-86AA-554ACCB32CC6}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{DC1CBD93-195F-4E1B-B877-24EE5DF9AFFE}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{55DA28D3-B687-4000-B2BF-3504C35F7663}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{576A0F3C-1E50-4ECF-A87D-F614BB329780}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{0B497446-F8F1-443D-B33B-AD756B90A91F}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{261632F3-99C4-43B7-8172-1E5BB206C491}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{AB8BCF59-7B7B-4F6A-8BB4-709BBB43BE59}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{CE733DB8-A375-4972-84AC-2E0EDC0CE684}" name="Column13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}" name="Tabell18" displayName="Tabell18" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4567D663-8969-4E9A-9161-3C5B988DAA7C}" name="Gauge"/>
-    <tableColumn id="5" xr3:uid="{C2971792-C04F-471D-AFAF-0E1A58D08F15}" name="GW (init 1mm) " dataDxfId="4" dataCellStyle="Procent"/>
-    <tableColumn id="6" xr3:uid="{F080338E-14D1-49F1-8FB5-4ED8E3E51ABA}" name="GW (init 2mm) " dataDxfId="3" dataCellStyle="Procent"/>
-    <tableColumn id="4" xr3:uid="{0F8743AB-1E0B-4839-AC6B-618994396645}" name="GW (init 3mm)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1A2405C4-3D51-4D7F-AF0B-4B6F325617D3}" name="force" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{689A6B0F-0009-4252-98A3-07AE7BA86C05}" name="increase" dataDxfId="0" dataCellStyle="Procent">
-      <calculatedColumnFormula>(Tabell18[[#This Row],[force]]-E1)/E1</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5398,23 +8174,106 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{67642355-081B-4D56-A154-FE914252D162}" name="Table4917" displayName="Table4917" ref="P35:AB39" totalsRowShown="0">
+  <autoFilter ref="P35:AB39" xr:uid="{67642355-081B-4D56-A154-FE914252D162}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{BDAB7725-135D-4433-8C92-797D54124E74}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{D85AA1A6-CE17-443F-B1BD-729AB438BCEF}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{19E623C3-9F98-462D-BDD4-80B2D771EF72}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{174FDEAE-858A-4B86-9B13-7EA99678C404}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{59B64F54-16C7-4FB8-B2F3-2E0C2ACC1202}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{C275536B-7172-4933-BAB6-3BB1F3950669}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{29DF5C6E-4382-4E58-A271-F607B519552C}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{989AEF3C-157A-45CB-9FA4-E897D789A463}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{A7EC6865-8E33-4A7D-B407-829928937754}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{9F644476-070E-4F22-B7C8-2BF85F0793EC}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{0C042170-4D28-4983-925E-19EADC66084F}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{C84172D3-CF4C-48D6-A7D9-F1D12D2F140E}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{99709585-08F1-4368-B383-3E348E84E23F}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}" name="Table11018" displayName="Table11018" ref="A1:M36" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:M36" xr:uid="{20C2F1E8-724A-433E-88A1-85B8E76538D6}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{3D795990-33F8-4BA3-ACE1-DB671AC0449D}" name="Rälprofil" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{ED9F4DD0-BD7B-4596-BA6D-F2A7BE574A4C}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BF432C40-E10C-45BD-80B1-2F48E150DFF3}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7FF13807-F56F-4388-A6A2-DBB0614154C7}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3A36983E-CAA5-40D4-9646-BA8A750AC7F3}" name="Column4" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FA8AA01D-E1BD-48E2-BF84-76050636EFD0}" name="Column5" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E944700D-CC3D-4EE1-980A-DB95DD34A1A1}" name="Column6" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5C63B602-D97C-41B6-9AEA-173905DD1A16}" name="Column7" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C2546431-AFF1-4DA7-8BF5-AFF302A1D270}" name="Column8" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{5B481BBA-FC01-406D-B0AB-10A51DA82212}" name="Column9" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{4D0F3C10-6738-4105-8FED-3B4BB0E292F7}" name="Column10" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{69D4994C-A97C-4558-BF23-1D878608CB92}" name="Column11" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{7F80E5F4-C88C-45E9-998F-C78B54DB3819}" name="Column12" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}" name="Table31220" displayName="Table31220" ref="A1:M36" totalsRowShown="0">
+  <autoFilter ref="A1:M36" xr:uid="{A9281B9C-81A3-4B10-BFFF-D5B7FF99EF3C}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{9C8058E9-BC3D-49B2-9178-95D42698ABB2}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{7C15D0A5-F911-47B6-8667-DAF42DBACF72}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{9CA55841-CDE2-4516-A226-0B425DBA012B}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{3B426003-9BBA-48DD-9FDE-3E32174156D1}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{563566FB-9460-4B29-B5A2-068152485169}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{5019D93C-3400-436D-86AA-554ACCB32CC6}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{DC1CBD93-195F-4E1B-B877-24EE5DF9AFFE}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{55DA28D3-B687-4000-B2BF-3504C35F7663}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{576A0F3C-1E50-4ECF-A87D-F614BB329780}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{0B497446-F8F1-443D-B33B-AD756B90A91F}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{261632F3-99C4-43B7-8172-1E5BB206C491}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{AB8BCF59-7B7B-4F6A-8BB4-709BBB43BE59}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{CE733DB8-A375-4972-84AC-2E0EDC0CE684}" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}" name="Tabell18" displayName="Tabell18" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{BE20B61B-0E54-424E-8D10-1DD9806C6670}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4567D663-8969-4E9A-9161-3C5B988DAA7C}" name="Track gauge"/>
+    <tableColumn id="5" xr3:uid="{C2971792-C04F-471D-AFAF-0E1A58D08F15}" name="Initially 1 mm" dataDxfId="4" dataCellStyle="Procent"/>
+    <tableColumn id="6" xr3:uid="{F080338E-14D1-49F1-8FB5-4ED8E3E51ABA}" name="Initially 2 mm" dataDxfId="3" dataCellStyle="Procent"/>
+    <tableColumn id="4" xr3:uid="{0F8743AB-1E0B-4839-AC6B-618994396645}" name="Initially 3 mm" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1A2405C4-3D51-4D7F-AF0B-4B6F325617D3}" name="force" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{689A6B0F-0009-4252-98A3-07AE7BA86C05}" name="increase" dataDxfId="0" dataCellStyle="Procent">
+      <calculatedColumnFormula>(Tabell18[[#This Row],[force]]-E1)/E1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}" name="Table110" displayName="Table110" ref="A26:M32" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}" name="Table110" displayName="Table110" ref="A26:M32" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A26:M32" xr:uid="{CCB897B7-D208-494A-803F-26C3097192DB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9EA327D2-4F90-461B-B981-3F6AF8D34AA4}" name="Column1" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{959B5B6B-3107-48CE-A4C2-1695F56C39CF}" name="Column2" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{D4515B36-F8CE-4A05-A58F-936714C04CE9}" name="Column3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{080C2810-907E-4D3C-A106-76731516CC24}" name="Column4" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{2F1FBFB1-1401-4D97-80FE-DFDB862EB56F}" name="Column5" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{43D6359A-C0B5-4140-A846-43A8BBF323A8}" name="Column6" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{DAB23FEF-1A54-4917-865D-1C78F0728F62}" name="Column7" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{3C27197F-BF59-40B1-8147-19D09C460D09}" name="Column8" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{4A68AF0C-E51C-4ABC-9CF8-976047D5A80E}" name="Column9" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{88A69B75-9987-4AF1-9BD9-120ECF06AFD9}" name="Column10" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{07DDF5E7-7787-4CB0-B6BD-6904067B5ECF}" name="Column11" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{35F664D4-4872-4113-B0F7-3741761DF4A5}" name="Column12" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{0DAD3FB4-1F8C-43D0-B6F4-F88F6985531B}" name="Column13" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{9EA327D2-4F90-461B-B981-3F6AF8D34AA4}" name="Column1" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{959B5B6B-3107-48CE-A4C2-1695F56C39CF}" name="Column2" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{D4515B36-F8CE-4A05-A58F-936714C04CE9}" name="Column3" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{080C2810-907E-4D3C-A106-76731516CC24}" name="Column4" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{2F1FBFB1-1401-4D97-80FE-DFDB862EB56F}" name="Column5" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{43D6359A-C0B5-4140-A846-43A8BBF323A8}" name="Column6" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{DAB23FEF-1A54-4917-865D-1C78F0728F62}" name="Column7" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{3C27197F-BF59-40B1-8147-19D09C460D09}" name="Column8" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{4A68AF0C-E51C-4ABC-9CF8-976047D5A80E}" name="Column9" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{88A69B75-9987-4AF1-9BD9-120ECF06AFD9}" name="Column10" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{07DDF5E7-7787-4CB0-B6BD-6904067B5ECF}" name="Column11" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{35F664D4-4872-4113-B0F7-3741761DF4A5}" name="Column12" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{0DAD3FB4-1F8C-43D0-B6F4-F88F6985531B}" name="Column13" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5531,22 +8390,22 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}" name="Table16" displayName="Table16" ref="A6:M12" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A6:M12" xr:uid="{3E7D7DD4-FE4B-4C87-9C30-393819F4E3FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8D1BFDF2-D5D1-4850-BB0F-7A2EB5B0F361}" name="Table1101821" displayName="Table1101821" ref="A44:M50" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A44:M50" xr:uid="{8D1BFDF2-D5D1-4850-BB0F-7A2EB5B0F361}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34B34F3E-82B4-4E1B-B48F-06B2BFB6DF86}" name="Column1" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{D5CC1066-7E72-4F76-B5D9-8D6A1C331E8F}" name="Column2" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{7D28EF99-DAC5-4977-A286-0AA6ABD11AE0}" name="Column3" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{73E72F70-156C-4110-9006-FCCB17CF6449}" name="Column4" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{08B169FF-B2DD-416D-AF03-27DBDA21DBCF}" name="Column5" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{AE316871-1529-44D3-BCE6-2708D1DC58C1}" name="Column6" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{8A09F402-0546-47C6-A186-1C55C1925879}" name="Column7" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{C711F7C8-E4AF-4641-94E0-DBBEF98E04C7}" name="Column8" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{3A3BB2AD-DDD6-4C1F-BD32-5B1D1B898192}" name="Column9" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{3D98E234-94E6-4244-902B-26181B22047A}" name="Column10" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{C0EF8DC6-18AC-469D-9C45-10711B8E3267}" name="Column11" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{EE8B5C56-E5E0-4F09-8830-0471C37ECF6B}" name="Column12" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{812AD289-ABCB-42FB-8DE9-8E2357D09E11}" name="Column13" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{58FA20EA-7BCE-4287-86F1-EDCEDEE59939}" name="Column1" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{990D0B61-02A2-476F-8FB9-F6D2AAD8A719}" name="Column2" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{AB4CB7E5-85B6-405A-9DE3-AA241A45BA63}" name="Column3" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{70BE550F-B51D-443B-92BC-C8A1F08FF086}" name="Column4" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{A797E0A9-E998-4968-8930-F2AC369AC344}" name="Column5" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{A414F981-6A30-4022-B679-BA59D16B55B5}" name="Column6" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{1E851EEC-2A7E-4DFC-972D-3A2BB2724A17}" name="Column7" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{3DA6AFCE-556D-46C1-864A-AFC65EBCDDE0}" name="Column8" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{8C07A33D-21DC-4176-B4BD-68B42F92CA01}" name="Column9" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{336AA89F-0654-4884-A599-F9366A45A551}" name="Column10" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{881D99C5-B94F-4FCB-B196-7BB5F890F31D}" name="Column11" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{A320C683-D081-4C9E-9954-4F46F6090D4B}" name="Column12" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{17706388-076E-4DCC-A1B2-B7976164B348}" name="Column13" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5849,10 +8708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B277D25-6310-4763-A9A3-46E6FFF4FD45}">
-  <dimension ref="A5:AB40"/>
+  <dimension ref="A5:AB58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB12" sqref="Q9:AB12"/>
+    <sheetView topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB50" sqref="Q47:AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,7 +8724,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="V5" t="s">
@@ -5956,7 +8815,7 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6038,22 +8897,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H9">
@@ -6118,22 +8977,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.05</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0.1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>0.11600000000000001</v>
       </c>
       <c r="H10">
@@ -6198,22 +9057,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H11">
@@ -6278,22 +9137,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H12">
@@ -6858,22 +9717,22 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="B29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G29" s="2">
         <v>0.53</v>
       </c>
       <c r="H29">
@@ -6938,22 +9797,22 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="B30" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G30" s="2">
         <v>0.55000000000000004</v>
       </c>
       <c r="H30">
@@ -7018,22 +9877,22 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="B31" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G31" s="2">
         <v>0.53</v>
       </c>
       <c r="H31">
@@ -7098,22 +9957,22 @@
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="B32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G32" s="2">
         <v>0.53</v>
       </c>
       <c r="H32">
@@ -7502,13 +10361,833 @@
       </c>
       <c r="AB40">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" t="s">
+        <v>22</v>
+      </c>
+      <c r="U44" t="s">
+        <v>23</v>
+      </c>
+      <c r="V44" t="s">
+        <v>24</v>
+      </c>
+      <c r="W44" t="s">
+        <v>25</v>
+      </c>
+      <c r="X44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>0.53</v>
+      </c>
+      <c r="C47">
+        <v>0.53</v>
+      </c>
+      <c r="D47">
+        <v>0.53</v>
+      </c>
+      <c r="E47">
+        <v>0.53</v>
+      </c>
+      <c r="F47">
+        <v>0.53</v>
+      </c>
+      <c r="G47">
+        <v>0.53</v>
+      </c>
+      <c r="H47">
+        <v>0.74</v>
+      </c>
+      <c r="I47">
+        <v>0.85</v>
+      </c>
+      <c r="J47">
+        <v>0.88</v>
+      </c>
+      <c r="K47">
+        <v>0.92</v>
+      </c>
+      <c r="L47">
+        <v>0.95</v>
+      </c>
+      <c r="M47">
+        <v>1.04</v>
+      </c>
+      <c r="P47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47">
+        <v>0.53</v>
+      </c>
+      <c r="R47">
+        <v>0.53</v>
+      </c>
+      <c r="S47">
+        <v>0.53</v>
+      </c>
+      <c r="T47">
+        <v>0.53</v>
+      </c>
+      <c r="U47">
+        <v>0.53</v>
+      </c>
+      <c r="V47">
+        <v>0.53</v>
+      </c>
+      <c r="W47">
+        <v>0.53</v>
+      </c>
+      <c r="X47">
+        <v>0.73</v>
+      </c>
+      <c r="Y47">
+        <v>0.88</v>
+      </c>
+      <c r="Z47">
+        <v>0.9</v>
+      </c>
+      <c r="AA47">
+        <v>0.94</v>
+      </c>
+      <c r="AB47">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>0.53</v>
+      </c>
+      <c r="C48">
+        <v>0.53</v>
+      </c>
+      <c r="D48">
+        <v>0.53</v>
+      </c>
+      <c r="E48">
+        <v>0.53</v>
+      </c>
+      <c r="F48">
+        <v>0.53</v>
+      </c>
+      <c r="G48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H48">
+        <v>0.89</v>
+      </c>
+      <c r="I48">
+        <v>0.98</v>
+      </c>
+      <c r="J48">
+        <v>0.99</v>
+      </c>
+      <c r="K48">
+        <v>0.98</v>
+      </c>
+      <c r="L48">
+        <v>1.06</v>
+      </c>
+      <c r="M48">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>0.53</v>
+      </c>
+      <c r="R48">
+        <v>0.53</v>
+      </c>
+      <c r="S48">
+        <v>0.53</v>
+      </c>
+      <c r="T48">
+        <v>0.53</v>
+      </c>
+      <c r="U48">
+        <v>0.54</v>
+      </c>
+      <c r="V48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X48">
+        <v>0.78</v>
+      </c>
+      <c r="Y48">
+        <v>0.88</v>
+      </c>
+      <c r="Z48">
+        <v>0.94</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>0.53</v>
+      </c>
+      <c r="C49">
+        <v>0.53</v>
+      </c>
+      <c r="D49">
+        <v>0.53</v>
+      </c>
+      <c r="E49">
+        <v>0.53</v>
+      </c>
+      <c r="F49">
+        <v>0.53</v>
+      </c>
+      <c r="G49">
+        <v>0.53</v>
+      </c>
+      <c r="H49">
+        <v>0.74</v>
+      </c>
+      <c r="I49">
+        <v>0.88</v>
+      </c>
+      <c r="J49">
+        <v>0.89</v>
+      </c>
+      <c r="K49">
+        <v>1.03</v>
+      </c>
+      <c r="L49">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M49">
+        <v>1.2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49">
+        <v>0.53</v>
+      </c>
+      <c r="R49">
+        <v>0.53</v>
+      </c>
+      <c r="S49">
+        <v>0.53</v>
+      </c>
+      <c r="T49">
+        <v>0.53</v>
+      </c>
+      <c r="U49">
+        <v>0.53</v>
+      </c>
+      <c r="V49">
+        <v>0.53</v>
+      </c>
+      <c r="W49">
+        <v>0.81</v>
+      </c>
+      <c r="X49">
+        <v>0.9</v>
+      </c>
+      <c r="Y49">
+        <v>0.94</v>
+      </c>
+      <c r="Z49">
+        <v>0.96</v>
+      </c>
+      <c r="AA49">
+        <v>1.06</v>
+      </c>
+      <c r="AB49">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>0.53</v>
+      </c>
+      <c r="C50">
+        <v>0.53</v>
+      </c>
+      <c r="D50">
+        <v>0.53</v>
+      </c>
+      <c r="E50">
+        <v>0.53</v>
+      </c>
+      <c r="F50">
+        <v>0.53</v>
+      </c>
+      <c r="G50">
+        <v>0.53</v>
+      </c>
+      <c r="H50">
+        <v>0.9</v>
+      </c>
+      <c r="I50">
+        <v>0.98</v>
+      </c>
+      <c r="J50">
+        <v>0.99</v>
+      </c>
+      <c r="K50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L50">
+        <v>1.2</v>
+      </c>
+      <c r="M50">
+        <v>1.27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q50">
+        <v>0.53</v>
+      </c>
+      <c r="R50">
+        <v>0.53</v>
+      </c>
+      <c r="S50">
+        <v>0.53</v>
+      </c>
+      <c r="T50">
+        <v>0.53</v>
+      </c>
+      <c r="U50">
+        <v>0.53</v>
+      </c>
+      <c r="V50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W50">
+        <v>0.8</v>
+      </c>
+      <c r="X50">
+        <v>0.91</v>
+      </c>
+      <c r="Y50">
+        <v>1.04</v>
+      </c>
+      <c r="Z50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>1.21</v>
+      </c>
+      <c r="AB50">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="V53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" t="s">
+        <v>22</v>
+      </c>
+      <c r="U54" t="s">
+        <v>23</v>
+      </c>
+      <c r="V54" t="s">
+        <v>24</v>
+      </c>
+      <c r="W54" t="s">
+        <v>25</v>
+      </c>
+      <c r="X54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s">
+        <v>3</v>
+      </c>
+      <c r="U56" t="s">
+        <v>4</v>
+      </c>
+      <c r="V56" t="s">
+        <v>5</v>
+      </c>
+      <c r="W56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X56" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>0.53</v>
+      </c>
+      <c r="C57">
+        <v>0.53</v>
+      </c>
+      <c r="D57">
+        <v>0.53</v>
+      </c>
+      <c r="E57">
+        <v>0.53</v>
+      </c>
+      <c r="F57">
+        <v>0.53</v>
+      </c>
+      <c r="G57">
+        <v>0.53</v>
+      </c>
+      <c r="H57">
+        <v>0.78</v>
+      </c>
+      <c r="I57">
+        <v>0.88</v>
+      </c>
+      <c r="J57">
+        <v>0.89</v>
+      </c>
+      <c r="K57">
+        <v>0.96</v>
+      </c>
+      <c r="L57">
+        <v>1.06</v>
+      </c>
+      <c r="M57">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57">
+        <v>0.53</v>
+      </c>
+      <c r="R57">
+        <v>0.53</v>
+      </c>
+      <c r="S57">
+        <v>0.53</v>
+      </c>
+      <c r="T57">
+        <v>0.53</v>
+      </c>
+      <c r="U57">
+        <v>0.53</v>
+      </c>
+      <c r="V57">
+        <v>0.53</v>
+      </c>
+      <c r="W57">
+        <v>0.82</v>
+      </c>
+      <c r="X57">
+        <v>0.92</v>
+      </c>
+      <c r="Y57">
+        <v>0.97</v>
+      </c>
+      <c r="Z57">
+        <v>0.98</v>
+      </c>
+      <c r="AA57">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>0.53</v>
+      </c>
+      <c r="C58">
+        <v>0.53</v>
+      </c>
+      <c r="D58">
+        <v>0.53</v>
+      </c>
+      <c r="E58">
+        <v>0.53</v>
+      </c>
+      <c r="F58">
+        <v>0.53</v>
+      </c>
+      <c r="G58">
+        <v>0.53</v>
+      </c>
+      <c r="H58">
+        <v>0.7</v>
+      </c>
+      <c r="I58">
+        <v>0.86</v>
+      </c>
+      <c r="J58">
+        <v>0.89</v>
+      </c>
+      <c r="K58">
+        <v>0.94</v>
+      </c>
+      <c r="L58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M58">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P58" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58">
+        <v>0.53</v>
+      </c>
+      <c r="R58">
+        <v>0.53</v>
+      </c>
+      <c r="S58">
+        <v>0.53</v>
+      </c>
+      <c r="T58">
+        <v>0.53</v>
+      </c>
+      <c r="U58">
+        <v>0.53</v>
+      </c>
+      <c r="V58">
+        <v>0.53</v>
+      </c>
+      <c r="W58">
+        <v>0.85</v>
+      </c>
+      <c r="X58">
+        <v>0.95</v>
+      </c>
+      <c r="Y58">
+        <v>0.98</v>
+      </c>
+      <c r="Z58">
+        <v>1.01</v>
+      </c>
+      <c r="AA58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AB58">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -7517,20 +11196,29 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575556C3-9CD1-4D3F-93A7-9FEC3F5A934D}">
-  <dimension ref="A6:AB39"/>
+  <dimension ref="A5:AB39"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB19" sqref="Q18:AB19"/>
+    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38:AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F5" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
@@ -7697,22 +11385,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="H9">
@@ -7777,22 +11465,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>1.24E-2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>2.07E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>3.73E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="H10">
@@ -7857,22 +11545,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.1026</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>0.1149</v>
       </c>
       <c r="H11">
@@ -7937,22 +11625,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>0.12039999999999999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>0.15260000000000001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>0.1842</v>
       </c>
       <c r="H12">
@@ -8179,22 +11867,22 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>5.28E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>9.3100000000000002E-2</v>
       </c>
       <c r="H18">
@@ -8259,22 +11947,22 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>0.1663</v>
       </c>
       <c r="H19">
@@ -8333,6 +12021,11 @@
       </c>
       <c r="AB19">
         <v>1.5158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -8506,22 +12199,22 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29">
@@ -8586,22 +12279,22 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30">
@@ -8666,22 +12359,22 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31">
@@ -8746,22 +12439,22 @@
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32">
@@ -8993,22 +12686,22 @@
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38">
@@ -9073,22 +12766,22 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39">
@@ -9166,10 +12859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C240127D-17EB-4812-A2BA-3FDC0D42802F}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="K14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9223,7 +12916,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
@@ -9267,25 +12960,25 @@
       <c r="A3">
         <v>1440</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="B3">
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>0.53</v>
+      </c>
+      <c r="D3">
+        <v>0.53</v>
+      </c>
+      <c r="E3">
+        <v>0.53</v>
+      </c>
+      <c r="F3">
+        <v>0.53</v>
+      </c>
+      <c r="G3">
+        <v>0.53</v>
+      </c>
+      <c r="H3">
         <v>0.74</v>
       </c>
       <c r="I3">
@@ -9308,32 +13001,32 @@
       <c r="A4">
         <v>1445</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4">
+        <v>0.53</v>
+      </c>
+      <c r="C4">
+        <v>0.53</v>
+      </c>
+      <c r="D4">
+        <v>0.53</v>
+      </c>
+      <c r="E4">
+        <v>0.53</v>
+      </c>
+      <c r="F4">
+        <v>0.53</v>
+      </c>
+      <c r="G4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="J4" s="14">
         <v>0.89</v>
-      </c>
-      <c r="I4">
-        <v>0.98</v>
-      </c>
-      <c r="J4">
-        <v>0.99</v>
       </c>
       <c r="K4">
         <v>0.98</v>
@@ -9349,32 +13042,32 @@
       <c r="A5">
         <v>1450</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="B5">
+        <v>0.53</v>
+      </c>
+      <c r="C5">
+        <v>0.53</v>
+      </c>
+      <c r="D5">
+        <v>0.53</v>
+      </c>
+      <c r="E5">
+        <v>0.53</v>
+      </c>
+      <c r="F5">
+        <v>0.53</v>
+      </c>
+      <c r="G5">
+        <v>0.53</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.89</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.99</v>
       </c>
       <c r="K5">
         <v>1.03</v>
@@ -9390,25 +13083,25 @@
       <c r="A6">
         <v>1455</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="B6">
+        <v>0.53</v>
+      </c>
+      <c r="C6">
+        <v>0.53</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.53</v>
+      </c>
+      <c r="F6">
+        <v>0.53</v>
+      </c>
+      <c r="G6">
+        <v>0.53</v>
+      </c>
+      <c r="H6">
         <v>0.9</v>
       </c>
       <c r="I6">
@@ -9428,25 +13121,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -9472,28 +13165,28 @@
       <c r="A8">
         <v>1450</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="B8">
+        <v>0.53</v>
+      </c>
+      <c r="C8">
+        <v>0.53</v>
+      </c>
+      <c r="D8">
+        <v>0.53</v>
+      </c>
+      <c r="E8">
+        <v>0.53</v>
+      </c>
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+      <c r="G8">
+        <v>0.53</v>
+      </c>
+      <c r="H8">
         <v>0.78</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>0.88</v>
       </c>
       <c r="J8">
@@ -9513,34 +13206,34 @@
       <c r="A9">
         <v>1455</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="B9">
+        <v>0.53</v>
+      </c>
+      <c r="C9">
+        <v>0.53</v>
+      </c>
+      <c r="D9">
+        <v>0.53</v>
+      </c>
+      <c r="E9">
+        <v>0.53</v>
+      </c>
+      <c r="F9">
+        <v>0.53</v>
+      </c>
+      <c r="G9">
+        <v>0.53</v>
+      </c>
+      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>0.86</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9">
         <v>0.94</v>
       </c>
       <c r="L9">
@@ -9551,13 +13244,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
@@ -9601,22 +13294,22 @@
       <c r="A12">
         <v>1440</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H12">
@@ -9642,32 +13335,32 @@
       <c r="A13">
         <v>1445</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.05</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.45500000000000002</v>
+      <c r="H13" s="16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.433</v>
       </c>
       <c r="K13">
         <v>0.52800000000000002</v>
@@ -9683,38 +13376,38 @@
       <c r="A14">
         <v>1450</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H14">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.33</v>
-      </c>
-      <c r="J14">
-        <v>0.433</v>
-      </c>
-      <c r="K14">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="L14">
-        <v>0.68200000000000005</v>
+      <c r="H14" s="6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.67400000000000004</v>
       </c>
       <c r="M14">
         <v>0.78800000000000003</v>
@@ -9724,45 +13417,45 @@
       <c r="A15">
         <v>1455</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I15">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J15">
-        <v>0.44</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="L15">
-        <v>0.67400000000000004</v>
+      <c r="I15" s="6">
+        <v>0.373</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.68200000000000005</v>
       </c>
       <c r="M15">
         <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
@@ -9804,7 +13497,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>4.5999999999999999E-2</v>
@@ -9824,20 +13517,20 @@
       <c r="G17">
         <v>0.104</v>
       </c>
-      <c r="H17">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="K17">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="L17">
-        <v>0.64400000000000002</v>
+      <c r="H17" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.64200000000000002</v>
       </c>
       <c r="M17">
         <v>0.71099999999999997</v>
@@ -9845,7 +13538,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>5.1999999999999998E-2</v>
@@ -9853,52 +13546,719 @@
       <c r="C18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>7.8E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>0.08</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H18" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.64200000000000002</v>
+      <c r="H18" s="6">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.64400000000000002</v>
       </c>
       <c r="M18">
         <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1440</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1445</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1450</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.17</v>
+      </c>
+      <c r="K23">
+        <v>0.21</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1455</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.11</v>
+      </c>
+      <c r="J24">
+        <v>0.46</v>
+      </c>
+      <c r="K24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L24">
+        <v>0.77</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.03</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.37</v>
+      </c>
+      <c r="K27">
+        <v>0.64</v>
+      </c>
+      <c r="L27">
+        <v>0.75</v>
+      </c>
+      <c r="M27">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1440</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.1221</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.2001</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.32050000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1445</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.24E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.1273</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.2344</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.48130000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1450</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1026</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.1149</v>
+      </c>
+      <c r="H32">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J32">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="K32">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="L32">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="M32">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1455</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.1842</v>
+      </c>
+      <c r="H33">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="J33">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="K33">
+        <v>1.0884</v>
+      </c>
+      <c r="L33">
+        <v>1.3346</v>
+      </c>
+      <c r="M33">
+        <v>1.5916999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="M35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.1663</v>
+      </c>
+      <c r="H36">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="I36">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="J36">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="K36">
+        <v>1.0187999999999999</v>
+      </c>
+      <c r="L36">
+        <v>1.2443</v>
+      </c>
+      <c r="M36">
+        <v>1.4316</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CE4E5A-ADD0-4101-BB70-0C5E1C06C9B2}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9951,7 +14311,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
@@ -9995,40 +14355,40 @@
       <c r="A3">
         <v>1440</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="B3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H3">
+        <v>0.53</v>
+      </c>
+      <c r="I3">
         <v>0.73</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>0.88</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>0.9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>0.94</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>1.01</v>
       </c>
     </row>
@@ -10036,40 +14396,40 @@
       <c r="A4">
         <v>1445</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.54</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.78</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.88</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>0.94</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -10077,40 +14437,40 @@
       <c r="A5">
         <v>1450</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="B5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H5">
         <v>0.81</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.9</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.94</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>0.96</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>1.06</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -10118,45 +14478,45 @@
       <c r="A6">
         <v>1455</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>0.8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.91</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>1.04</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>1.21</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -10200,40 +14560,40 @@
       <c r="A8">
         <v>1450</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="B8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H8">
         <v>0.82</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.92</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0.97</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>0.98</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -10241,51 +14601,51 @@
       <c r="A9">
         <v>1455</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="B9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H9">
         <v>0.85</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.95</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>0.98</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>1.01</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
@@ -10329,22 +14689,22 @@
       <c r="A12">
         <v>1440</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H12">
@@ -10370,26 +14730,26 @@
       <c r="A13">
         <v>1445</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.105</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.112</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.26300000000000001</v>
+      <c r="H13" s="14">
+        <v>0.249</v>
       </c>
       <c r="I13">
         <v>0.33500000000000002</v>
@@ -10403,33 +14763,33 @@
       <c r="L13">
         <v>0.61099999999999999</v>
       </c>
-      <c r="M13" s="2">
-        <v>0.72099999999999997</v>
+      <c r="M13" s="15">
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1450</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="16">
         <v>0.25800000000000001</v>
       </c>
       <c r="I14">
@@ -10444,34 +14804,34 @@
       <c r="L14">
         <v>0.625</v>
       </c>
-      <c r="M14">
-        <v>0.70399999999999996</v>
+      <c r="M14" s="6">
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1455</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.114</v>
       </c>
-      <c r="H15">
-        <v>0.249</v>
+      <c r="H15" s="6">
+        <v>0.26300000000000001</v>
       </c>
       <c r="I15">
         <v>0.40100000000000002</v>
@@ -10490,25 +14850,25 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
@@ -10534,89 +14894,758 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C17">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="D17">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="E17">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="F17">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="G17">
-        <v>9.5899999999999999E-2</v>
+      <c r="B17" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H17">
-        <v>0.21790000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="I17">
-        <v>0.379</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="J17">
-        <v>0.53139999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="K17">
-        <v>0.64280000000000004</v>
-      </c>
-      <c r="L17">
-        <v>0.75480000000000003</v>
-      </c>
-      <c r="M17">
-        <v>0.83389999999999997</v>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="K18">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1440</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1445</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1450</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.11</v>
+      </c>
+      <c r="K23">
+        <v>0.27</v>
+      </c>
+      <c r="L23">
+        <v>0.35</v>
+      </c>
+      <c r="M23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1455</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.24</v>
+      </c>
+      <c r="K24">
+        <v>0.36</v>
+      </c>
+      <c r="L24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M24">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.01</v>
+      </c>
+      <c r="K26">
+        <v>0.02</v>
+      </c>
+      <c r="L26">
+        <v>0.2</v>
+      </c>
+      <c r="M26">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.11</v>
+      </c>
+      <c r="J27">
+        <v>0.35</v>
+      </c>
+      <c r="K27">
+        <v>0.63</v>
+      </c>
+      <c r="L27">
+        <v>0.79</v>
+      </c>
+      <c r="M27">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1440</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.1212</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1445</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.1318</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.3826</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.52339999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1450</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.1135</v>
+      </c>
+      <c r="H32">
+        <v>0.3105</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.9234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1455</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.1203</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.2064</v>
+      </c>
+      <c r="H33">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="I33">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.79</v>
+      </c>
+      <c r="K33">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L33">
+        <v>1.1195999999999999</v>
+      </c>
+      <c r="M33">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.379</v>
+      </c>
+      <c r="J35">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="L35">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.83389999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="C18">
+      <c r="C36" s="1">
         <v>6.93E-2</v>
       </c>
-      <c r="D18">
+      <c r="D36" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E18">
+      <c r="E36" s="1">
         <v>0.121</v>
       </c>
-      <c r="F18">
+      <c r="F36" s="1">
         <v>0.1434</v>
       </c>
-      <c r="G18">
+      <c r="G36" s="1">
         <v>0.1739</v>
       </c>
-      <c r="H18">
+      <c r="H36">
         <v>0.37809999999999999</v>
       </c>
-      <c r="I18">
+      <c r="I36">
         <v>0.67789999999999995</v>
       </c>
-      <c r="J18">
+      <c r="J36">
         <v>0.85870000000000002</v>
       </c>
-      <c r="K18">
+      <c r="K36">
         <v>1.0952999999999999</v>
       </c>
-      <c r="L18">
+      <c r="L36">
         <v>1.2991999999999999</v>
       </c>
-      <c r="M18">
+      <c r="M36">
         <v>1.5158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10625,8 +15654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2C0561-E939-4C5B-8434-C589F3C83934}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10640,35 +15669,35 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="7">
         <v>1440</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="13">
         <v>3</v>
       </c>
       <c r="E2">
@@ -10676,178 +15705,179 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="8">
         <v>1442</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <f>B2*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.0291666666666666</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="13">
         <f>C2*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.0583333333333331</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <f>D2*(1+Tabell18[[#This Row],[increase]])</f>
         <v>3.0874999999999995</v>
       </c>
       <c r="E3">
         <v>12.35</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="11">
         <f>(Tabell18[[#This Row],[force]]-E2)/E2</f>
         <v>2.9166666666666636E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1445</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <f>B3*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <f>C3*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.083333333333333</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <f>D3*(1+Tabell18[[#This Row],[increase]])</f>
         <v>3.1249999999999996</v>
       </c>
       <c r="E4">
         <v>12.5</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <f>(Tabell18[[#This Row],[force]]-E3)/E3</f>
         <v>1.2145748987854281E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="8">
         <v>1446</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <f>B4*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.075</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <f>C4*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <f>D4*(1+Tabell18[[#This Row],[increase]])</f>
         <v>3.2249999999999996</v>
       </c>
       <c r="E5">
         <v>12.9</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <f>(Tabell18[[#This Row],[force]]-E4)/E4</f>
         <v>3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>1447</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <f>B5*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <f>C5*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <f>D5*(1+Tabell18[[#This Row],[increase]])</f>
         <v>3.45</v>
       </c>
       <c r="E6">
         <v>13.8</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <f>(Tabell18[[#This Row],[force]]-E5)/E5</f>
         <v>6.9767441860465143E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="8">
         <v>1448</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <f>B6*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.2416666666666667</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="13">
         <f>C6*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.4833333333333334</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="13">
         <f>D6*(1+Tabell18[[#This Row],[increase]])</f>
         <v>3.7250000000000001</v>
       </c>
       <c r="E7">
         <v>14.9</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <f>(Tabell18[[#This Row],[force]]-E6)/E6</f>
         <v>7.9710144927536197E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>1449</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <f>B7*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.3666666666666667</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <f>C7*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.7333333333333334</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="13">
         <f>D7*(1+Tabell18[[#This Row],[increase]])</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E8">
         <v>16.399999999999999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <f>(Tabell18[[#This Row],[force]]-E7)/E7</f>
         <v>0.1006711409395972</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="10">
         <v>1450</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <f>B8*(1+Tabell18[[#This Row],[increase]])</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <f>C8*(1+Tabell18[[#This Row],[increase]])</f>
         <v>2.9666666666666668</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="13">
         <f>D8*(1+Tabell18[[#This Row],[increase]])</f>
         <v>4.45</v>
       </c>
       <c r="E9">
         <v>17.8</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <f>(Tabell18[[#This Row],[force]]-E8)/E8</f>
         <v>8.5365853658536717E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>